--- a/Assignments/A4/PhoneSurvey.xlsx
+++ b/Assignments/A4/PhoneSurvey.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rwe/Documents/Economics/Teaching/MACSS/MACS30000/Fall2018/Assignments/A4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angela\Documents\Autum_2018\Perspectives_Comp\HW4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFAB015-092A-7748-BEF6-F563EAB7DF11}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB1CA1C-58CE-4F91-93A6-2D8489C854B5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="720" windowWidth="25440" windowHeight="14420" xr2:uid="{BDE4B2C5-7C5C-EF4E-A801-B6684FDFD484}"/>
+    <workbookView xWindow="75" yWindow="720" windowWidth="25440" windowHeight="14415" xr2:uid="{BDE4B2C5-7C5C-EF4E-A801-B6684FDFD484}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$H$203</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Survey Response sheet for MACS 30000 (Autumn 2018), Assignment 4</t>
   </si>
@@ -43,6 +46,15 @@
   </si>
   <si>
     <t>Sample ID</t>
+  </si>
+  <si>
+    <t>Valid Number</t>
+  </si>
+  <si>
+    <t>Code Area</t>
+  </si>
+  <si>
+    <t>Full Phone Number</t>
   </si>
 </sst>
 </file>
@@ -410,1645 +422,4258 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C33F710-E8FA-AE4D-9C3A-3CA0D51B8626}">
-  <dimension ref="A1:E204"/>
+  <dimension ref="A1:H204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="28.83203125" customWidth="1"/>
+    <col min="3" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="10.375" customWidth="1"/>
+    <col min="7" max="7" width="28.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
+        <v>435</v>
+      </c>
+      <c r="C4" s="1">
         <v>4310454</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D4" s="1" t="str">
+        <f>CONCATENATE(B4,C4)</f>
+        <v>4354310454</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
+        <v>435</v>
+      </c>
+      <c r="C5" s="1">
         <v>6920338</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D5" s="1" t="str">
+        <f t="shared" ref="D5:D68" si="0">CONCATENATE(B5,C5)</f>
+        <v>4356920338</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
+        <v>435</v>
+      </c>
+      <c r="C6" s="1">
         <v>6918070</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4356918070</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
+        <v>435</v>
+      </c>
+      <c r="C7" s="1">
         <v>3605305</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4353605305</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
+        <v>435</v>
+      </c>
+      <c r="C8" s="1">
         <v>8892229</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4358892229</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
+        <v>435</v>
+      </c>
+      <c r="C9" s="1">
         <v>3421805</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4353421805</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
+        <v>435</v>
+      </c>
+      <c r="C10" s="1">
         <v>4172517</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4354172517</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
+        <v>435</v>
+      </c>
+      <c r="C11" s="1">
         <v>8613530</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4358613530</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
+        <v>435</v>
+      </c>
+      <c r="C12" s="1">
         <v>5087341</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4355087341</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
+        <v>435</v>
+      </c>
+      <c r="C13" s="1">
         <v>2438163</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4352438163</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
+        <v>435</v>
+      </c>
+      <c r="C14" s="1">
         <v>4037270</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4354037270</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
+        <v>435</v>
+      </c>
+      <c r="C15" s="1">
         <v>5652672</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4355652672</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
+        <v>435</v>
+      </c>
+      <c r="C16" s="1">
         <v>7393216</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4357393216</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
+        <v>435</v>
+      </c>
+      <c r="C17" s="1">
         <v>7229394</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4357229394</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
+        <v>435</v>
+      </c>
+      <c r="C18" s="1">
         <v>5151305</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4355151305</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
+        <v>435</v>
+      </c>
+      <c r="C19" s="1">
         <v>4877748</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4354877748</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
+        <v>435</v>
+      </c>
+      <c r="C20" s="1">
         <v>4265519</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4354265519</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21">
+        <v>435</v>
+      </c>
+      <c r="C21" s="1">
         <v>6516979</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4356516979</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22">
+        <v>435</v>
+      </c>
+      <c r="C22" s="1">
         <v>8565245</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4358565245</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23">
+        <v>435</v>
+      </c>
+      <c r="C23" s="1">
         <v>8407755</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4358407755</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24">
+        <v>435</v>
+      </c>
+      <c r="C24" s="1">
         <v>2709233</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4352709233</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>22</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
+        <v>435</v>
+      </c>
+      <c r="C25" s="1">
         <v>9181750</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4359181750</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>23</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
+        <v>435</v>
+      </c>
+      <c r="C26" s="1">
         <v>4860050</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4354860050</v>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27">
+        <v>435</v>
+      </c>
+      <c r="C27" s="1">
         <v>8194429</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4358194429</v>
+      </c>
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>25</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28">
+        <v>435</v>
+      </c>
+      <c r="C28" s="1">
         <v>7497881</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4357497881</v>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>26</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29">
+        <v>435</v>
+      </c>
+      <c r="C29" s="1">
         <v>6978928</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4356978928</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>27</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30">
+        <v>435</v>
+      </c>
+      <c r="C30" s="1">
         <v>4670541</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4354670541</v>
+      </c>
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>28</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31">
+        <v>435</v>
+      </c>
+      <c r="C31" s="1">
         <v>8642160</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4358642160</v>
+      </c>
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>29</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32">
+        <v>435</v>
+      </c>
+      <c r="C32" s="1">
         <v>3109656</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4353109656</v>
+      </c>
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>30</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33">
+        <v>435</v>
+      </c>
+      <c r="C33" s="1">
         <v>2536524</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4352536524</v>
+      </c>
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>31</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34">
+        <v>435</v>
+      </c>
+      <c r="C34" s="1">
         <v>4159593</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4354159593</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>32</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35">
+        <v>435</v>
+      </c>
+      <c r="C35" s="1">
         <v>9156659</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4359156659</v>
+      </c>
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>33</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36">
+        <v>435</v>
+      </c>
+      <c r="C36" s="1">
         <v>2630658</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4352630658</v>
+      </c>
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>34</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37">
+        <v>435</v>
+      </c>
+      <c r="C37" s="1">
         <v>3103116</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4353103116</v>
+      </c>
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>35</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38">
+        <v>435</v>
+      </c>
+      <c r="C38" s="1">
         <v>3526990</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4353526990</v>
+      </c>
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>36</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39">
+        <v>435</v>
+      </c>
+      <c r="C39" s="1">
         <v>8903095</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4358903095</v>
+      </c>
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>37</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40">
+        <v>435</v>
+      </c>
+      <c r="C40" s="1">
         <v>8761170</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4358761170</v>
+      </c>
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>38</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41">
+        <v>435</v>
+      </c>
+      <c r="C41" s="1">
         <v>9173160</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4359173160</v>
+      </c>
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>39</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42">
+        <v>435</v>
+      </c>
+      <c r="C42" s="1">
         <v>8450958</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4358450958</v>
+      </c>
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>40</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43">
+        <v>435</v>
+      </c>
+      <c r="C43" s="1">
         <v>5849527</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4355849527</v>
+      </c>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>41</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44">
+        <v>435</v>
+      </c>
+      <c r="C44" s="1">
         <v>9874505</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4359874505</v>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>42</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45">
+        <v>435</v>
+      </c>
+      <c r="C45" s="1">
         <v>5080490</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4355080490</v>
+      </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>43</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46">
+        <v>435</v>
+      </c>
+      <c r="C46" s="1">
         <v>7459046</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D46" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4357459046</v>
+      </c>
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>44</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47">
+        <v>435</v>
+      </c>
+      <c r="C47" s="1">
         <v>4455876</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D47" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4354455876</v>
+      </c>
+      <c r="E47" t="b">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>45</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48">
+        <v>435</v>
+      </c>
+      <c r="C48" s="1">
         <v>9744213</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D48" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4359744213</v>
+      </c>
+      <c r="E48" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>46</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49">
+        <v>435</v>
+      </c>
+      <c r="C49" s="1">
         <v>3099226</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D49" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4353099226</v>
+      </c>
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>47</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50">
+        <v>435</v>
+      </c>
+      <c r="C50" s="1">
         <v>7441722</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D50" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4357441722</v>
+      </c>
+      <c r="E50" t="b">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>48</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51">
+        <v>435</v>
+      </c>
+      <c r="C51" s="1">
         <v>6900989</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D51" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4356900989</v>
+      </c>
+      <c r="E51" t="b">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>49</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52">
+        <v>435</v>
+      </c>
+      <c r="C52" s="1">
         <v>8572189</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D52" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4358572189</v>
+      </c>
+      <c r="E52" t="b">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>50</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53">
+        <v>435</v>
+      </c>
+      <c r="C53" s="1">
         <v>7154223</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D53" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4357154223</v>
+      </c>
+      <c r="E53" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>51</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54">
+        <v>435</v>
+      </c>
+      <c r="C54" s="1">
         <v>6231491</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D54" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4356231491</v>
+      </c>
+      <c r="E54" t="b">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>52</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55">
+        <v>435</v>
+      </c>
+      <c r="C55" s="1">
         <v>3660183</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D55" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4353660183</v>
+      </c>
+      <c r="E55" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>53</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56">
+        <v>435</v>
+      </c>
+      <c r="C56" s="1">
         <v>5014048</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D56" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4355014048</v>
+      </c>
+      <c r="E56" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>54</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57">
+        <v>435</v>
+      </c>
+      <c r="C57" s="1">
         <v>3395385</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D57" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4353395385</v>
+      </c>
+      <c r="E57" t="b">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>55</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58">
+        <v>435</v>
+      </c>
+      <c r="C58" s="1">
         <v>5220200</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D58" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4355220200</v>
+      </c>
+      <c r="E58" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>56</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59">
+        <v>435</v>
+      </c>
+      <c r="C59" s="1">
         <v>4510321</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D59" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4354510321</v>
+      </c>
+      <c r="E59" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>57</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60">
+        <v>435</v>
+      </c>
+      <c r="C60" s="1">
         <v>8189798</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D60" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4358189798</v>
+      </c>
+      <c r="E60" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>58</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61">
+        <v>435</v>
+      </c>
+      <c r="C61" s="1">
         <v>2687999</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D61" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4352687999</v>
+      </c>
+      <c r="E61" t="b">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>59</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62">
+        <v>435</v>
+      </c>
+      <c r="C62" s="1">
         <v>9551750</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D62" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4359551750</v>
+      </c>
+      <c r="E62" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>60</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63">
+        <v>435</v>
+      </c>
+      <c r="C63" s="1">
         <v>3894955</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D63" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4353894955</v>
+      </c>
+      <c r="E63" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>61</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64">
+        <v>435</v>
+      </c>
+      <c r="C64" s="1">
         <v>3018578</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D64" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4353018578</v>
+      </c>
+      <c r="E64" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>62</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65">
+        <v>435</v>
+      </c>
+      <c r="C65" s="1">
         <v>2758398</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D65" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4352758398</v>
+      </c>
+      <c r="E65" t="b">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>63</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66">
+        <v>435</v>
+      </c>
+      <c r="C66" s="1">
         <v>3891447</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D66" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4353891447</v>
+      </c>
+      <c r="E66" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>64</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67">
+        <v>435</v>
+      </c>
+      <c r="C67" s="1">
         <v>2661373</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D67" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4352661373</v>
+      </c>
+      <c r="E67" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>65</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68">
+        <v>435</v>
+      </c>
+      <c r="C68" s="1">
         <v>6190466</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D68" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4356190466</v>
+      </c>
+      <c r="E68" t="b">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>66</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69">
+        <v>435</v>
+      </c>
+      <c r="C69" s="1">
         <v>4491947</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D69" s="1" t="str">
+        <f t="shared" ref="D69:D132" si="1">CONCATENATE(B69,C69)</f>
+        <v>4354491947</v>
+      </c>
+      <c r="E69" t="b">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>67</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70">
+        <v>435</v>
+      </c>
+      <c r="C70" s="1">
         <v>3008542</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D70" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4353008542</v>
+      </c>
+      <c r="E70" t="b">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>68</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71">
+        <v>435</v>
+      </c>
+      <c r="C71" s="1">
         <v>9177932</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D71" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4359177932</v>
+      </c>
+      <c r="E71" t="b">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>69</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72">
+        <v>435</v>
+      </c>
+      <c r="C72" s="1">
         <v>5434580</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D72" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4355434580</v>
+      </c>
+      <c r="E72" t="b">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>70</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73">
+        <v>435</v>
+      </c>
+      <c r="C73" s="1">
         <v>5588372</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D73" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4355588372</v>
+      </c>
+      <c r="E73" t="b">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>71</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74">
+        <v>435</v>
+      </c>
+      <c r="C74" s="1">
         <v>6528460</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D74" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4356528460</v>
+      </c>
+      <c r="E74" t="b">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>72</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75">
+        <v>435</v>
+      </c>
+      <c r="C75" s="1">
         <v>5080362</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D75" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4355080362</v>
+      </c>
+      <c r="E75" t="b">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>73</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76">
+        <v>435</v>
+      </c>
+      <c r="C76" s="1">
         <v>5807911</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D76" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4355807911</v>
+      </c>
+      <c r="E76" t="b">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>74</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77">
+        <v>435</v>
+      </c>
+      <c r="C77" s="1">
         <v>3656122</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D77" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4353656122</v>
+      </c>
+      <c r="E77" t="b">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>75</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78">
+        <v>435</v>
+      </c>
+      <c r="C78" s="1">
         <v>8509733</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D78" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4358509733</v>
+      </c>
+      <c r="E78" t="b">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>76</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79">
+        <v>435</v>
+      </c>
+      <c r="C79" s="1">
         <v>6573086</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D79" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4356573086</v>
+      </c>
+      <c r="E79" t="b">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>77</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80">
+        <v>435</v>
+      </c>
+      <c r="C80" s="1">
         <v>7515206</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D80" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4357515206</v>
+      </c>
+      <c r="E80" t="b">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>78</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81">
+        <v>435</v>
+      </c>
+      <c r="C81" s="1">
         <v>3733268</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D81" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4353733268</v>
+      </c>
+      <c r="E81" t="b">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>79</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82">
+        <v>435</v>
+      </c>
+      <c r="C82" s="1">
         <v>6948908</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D82" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4356948908</v>
+      </c>
+      <c r="E82" t="b">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>80</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83">
+        <v>435</v>
+      </c>
+      <c r="C83" s="1">
         <v>4597991</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D83" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4354597991</v>
+      </c>
+      <c r="E83" t="b">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>81</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84">
+        <v>435</v>
+      </c>
+      <c r="C84" s="1">
         <v>5010584</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D84" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4355010584</v>
+      </c>
+      <c r="E84" t="b">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>82</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85">
+        <v>435</v>
+      </c>
+      <c r="C85" s="1">
         <v>7150555</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D85" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4357150555</v>
+      </c>
+      <c r="E85" t="b">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>83</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86">
+        <v>435</v>
+      </c>
+      <c r="C86" s="1">
         <v>2318224</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D86" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4352318224</v>
+      </c>
+      <c r="E86" t="b">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>84</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87">
+        <v>435</v>
+      </c>
+      <c r="C87" s="1">
         <v>5894130</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D87" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4355894130</v>
+      </c>
+      <c r="E87" t="b">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>85</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88">
+        <v>435</v>
+      </c>
+      <c r="C88" s="1">
         <v>3241426</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D88" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4353241426</v>
+      </c>
+      <c r="E88" t="b">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>86</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89">
+        <v>435</v>
+      </c>
+      <c r="C89" s="1">
         <v>9364559</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D89" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4359364559</v>
+      </c>
+      <c r="E89" t="b">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>87</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B90">
+        <v>435</v>
+      </c>
+      <c r="C90" s="1">
         <v>9980970</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D90" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4359980970</v>
+      </c>
+      <c r="E90" t="b">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>88</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B91">
+        <v>435</v>
+      </c>
+      <c r="C91" s="1">
         <v>4325683</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D91" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4354325683</v>
+      </c>
+      <c r="E91" t="b">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>89</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B92">
+        <v>435</v>
+      </c>
+      <c r="C92" s="1">
         <v>3963502</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D92" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4353963502</v>
+      </c>
+      <c r="E92" t="b">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>90</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B93">
+        <v>435</v>
+      </c>
+      <c r="C93" s="1">
         <v>7446604</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D93" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4357446604</v>
+      </c>
+      <c r="E93" t="b">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>91</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B94">
+        <v>435</v>
+      </c>
+      <c r="C94" s="1">
         <v>8970051</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D94" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4358970051</v>
+      </c>
+      <c r="E94" t="b">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>92</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B95">
+        <v>435</v>
+      </c>
+      <c r="C95" s="1">
         <v>6571851</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D95" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4356571851</v>
+      </c>
+      <c r="E95" t="b">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>93</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B96">
+        <v>435</v>
+      </c>
+      <c r="C96" s="1">
         <v>2818481</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D96" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4352818481</v>
+      </c>
+      <c r="E96" t="b">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>94</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B97">
+        <v>435</v>
+      </c>
+      <c r="C97" s="1">
         <v>9592068</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D97" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4359592068</v>
+      </c>
+      <c r="E97" t="b">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>95</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B98">
+        <v>435</v>
+      </c>
+      <c r="C98" s="1">
         <v>4182313</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D98" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4354182313</v>
+      </c>
+      <c r="E98" t="b">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>96</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B99">
+        <v>435</v>
+      </c>
+      <c r="C99" s="1">
         <v>3881508</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D99" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4353881508</v>
+      </c>
+      <c r="E99" t="b">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>97</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B100">
+        <v>435</v>
+      </c>
+      <c r="C100" s="1">
         <v>3347696</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D100" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4353347696</v>
+      </c>
+      <c r="E100" t="b">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>98</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B101">
+        <v>435</v>
+      </c>
+      <c r="C101" s="1">
         <v>2892356</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D101" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4352892356</v>
+      </c>
+      <c r="E101" t="b">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>99</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B102">
+        <v>435</v>
+      </c>
+      <c r="C102" s="1">
         <v>8330415</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D102" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4358330415</v>
+      </c>
+      <c r="E102" t="b">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>100</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B103">
+        <v>435</v>
+      </c>
+      <c r="C103" s="1">
         <v>4819145</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D103" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4354819145</v>
+      </c>
+      <c r="E103" t="b">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>101</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B104">
+        <v>435</v>
+      </c>
+      <c r="C104" s="1">
         <v>8775030</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D104" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4358775030</v>
+      </c>
+      <c r="E104" t="b">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>102</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B105">
+        <v>435</v>
+      </c>
+      <c r="C105" s="1">
         <v>7091051</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D105" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4357091051</v>
+      </c>
+      <c r="E105" t="b">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>103</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B106">
+        <v>435</v>
+      </c>
+      <c r="C106" s="1">
         <v>8891439</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D106" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4358891439</v>
+      </c>
+      <c r="E106" t="b">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>104</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B107">
+        <v>435</v>
+      </c>
+      <c r="C107" s="1">
         <v>7315774</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D107" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4357315774</v>
+      </c>
+      <c r="E107" t="b">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>105</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B108">
+        <v>435</v>
+      </c>
+      <c r="C108" s="1">
         <v>3718721</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D108" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4353718721</v>
+      </c>
+      <c r="E108" t="b">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>106</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B109">
+        <v>435</v>
+      </c>
+      <c r="C109" s="1">
         <v>5087908</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D109" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4355087908</v>
+      </c>
+      <c r="E109" t="b">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>107</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B110">
+        <v>435</v>
+      </c>
+      <c r="C110" s="1">
         <v>2247311</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D110" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4352247311</v>
+      </c>
+      <c r="E110" t="b">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>108</v>
       </c>
-      <c r="B111" s="1">
+      <c r="B111">
+        <v>435</v>
+      </c>
+      <c r="C111" s="1">
         <v>8388750</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D111" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4358388750</v>
+      </c>
+      <c r="E111" t="b">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>109</v>
       </c>
-      <c r="B112" s="1">
+      <c r="B112">
+        <v>435</v>
+      </c>
+      <c r="C112" s="1">
         <v>8192717</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D112" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4358192717</v>
+      </c>
+      <c r="E112" t="b">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>110</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B113">
+        <v>435</v>
+      </c>
+      <c r="C113" s="1">
         <v>7432052</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D113" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4357432052</v>
+      </c>
+      <c r="E113" t="b">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>111</v>
       </c>
-      <c r="B114" s="1">
+      <c r="B114">
+        <v>435</v>
+      </c>
+      <c r="C114" s="1">
         <v>7083813</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D114" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4357083813</v>
+      </c>
+      <c r="E114" t="b">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>112</v>
       </c>
-      <c r="B115" s="1">
+      <c r="B115">
+        <v>435</v>
+      </c>
+      <c r="C115" s="1">
         <v>2976684</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D115" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4352976684</v>
+      </c>
+      <c r="E115" t="b">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>113</v>
       </c>
-      <c r="B116" s="1">
+      <c r="B116">
+        <v>435</v>
+      </c>
+      <c r="C116" s="1">
         <v>8661836</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D116" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4358661836</v>
+      </c>
+      <c r="E116" t="b">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>114</v>
       </c>
-      <c r="B117" s="1">
+      <c r="B117">
+        <v>435</v>
+      </c>
+      <c r="C117" s="1">
         <v>9359749</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D117" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4359359749</v>
+      </c>
+      <c r="E117" t="b">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>115</v>
       </c>
-      <c r="B118" s="1">
+      <c r="B118">
+        <v>435</v>
+      </c>
+      <c r="C118" s="1">
         <v>7606307</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D118" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4357606307</v>
+      </c>
+      <c r="E118" t="b">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>116</v>
       </c>
-      <c r="B119" s="1">
+      <c r="B119">
+        <v>435</v>
+      </c>
+      <c r="C119" s="1">
         <v>9825275</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D119" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4359825275</v>
+      </c>
+      <c r="E119" t="b">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>117</v>
       </c>
-      <c r="B120" s="1">
+      <c r="B120">
+        <v>435</v>
+      </c>
+      <c r="C120" s="1">
         <v>2312219</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D120" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4352312219</v>
+      </c>
+      <c r="E120" t="b">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>118</v>
       </c>
-      <c r="B121" s="1">
+      <c r="B121">
+        <v>435</v>
+      </c>
+      <c r="C121" s="1">
         <v>5268099</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D121" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4355268099</v>
+      </c>
+      <c r="E121" t="b">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>119</v>
       </c>
-      <c r="B122" s="1">
+      <c r="B122">
+        <v>435</v>
+      </c>
+      <c r="C122" s="1">
         <v>2430785</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D122" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4352430785</v>
+      </c>
+      <c r="E122" t="b">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>120</v>
       </c>
-      <c r="B123" s="1">
+      <c r="B123">
+        <v>435</v>
+      </c>
+      <c r="C123" s="1">
         <v>4616118</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D123" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4354616118</v>
+      </c>
+      <c r="E123" t="b">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>121</v>
       </c>
-      <c r="B124" s="1">
+      <c r="B124">
+        <v>435</v>
+      </c>
+      <c r="C124" s="1">
         <v>6914711</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D124" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4356914711</v>
+      </c>
+      <c r="E124" t="b">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>122</v>
       </c>
-      <c r="B125" s="1">
+      <c r="B125">
+        <v>435</v>
+      </c>
+      <c r="C125" s="1">
         <v>6791019</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D125" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4356791019</v>
+      </c>
+      <c r="E125" t="b">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>123</v>
       </c>
-      <c r="B126" s="1">
+      <c r="B126">
+        <v>435</v>
+      </c>
+      <c r="C126" s="1">
         <v>4332585</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D126" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4354332585</v>
+      </c>
+      <c r="E126" t="b">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>124</v>
       </c>
-      <c r="B127" s="1">
+      <c r="B127">
+        <v>435</v>
+      </c>
+      <c r="C127" s="1">
         <v>6715089</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D127" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4356715089</v>
+      </c>
+      <c r="E127" t="b">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>125</v>
       </c>
-      <c r="B128" s="1">
+      <c r="B128">
+        <v>435</v>
+      </c>
+      <c r="C128" s="1">
         <v>9087058</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D128" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4359087058</v>
+      </c>
+      <c r="E128" t="b">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>126</v>
       </c>
-      <c r="B129" s="1">
+      <c r="B129">
+        <v>435</v>
+      </c>
+      <c r="C129" s="1">
         <v>5511333</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D129" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4355511333</v>
+      </c>
+      <c r="E129" t="b">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>127</v>
       </c>
-      <c r="B130" s="1">
+      <c r="B130">
+        <v>435</v>
+      </c>
+      <c r="C130" s="1">
         <v>7842348</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D130" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4357842348</v>
+      </c>
+      <c r="E130" t="b">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>128</v>
       </c>
-      <c r="B131" s="1">
+      <c r="B131">
+        <v>435</v>
+      </c>
+      <c r="C131" s="1">
         <v>6985596</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D131" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4356985596</v>
+      </c>
+      <c r="E131" t="b">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>129</v>
       </c>
-      <c r="B132" s="1">
+      <c r="B132">
+        <v>435</v>
+      </c>
+      <c r="C132" s="1">
         <v>6915150</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D132" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4356915150</v>
+      </c>
+      <c r="E132" t="b">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>130</v>
       </c>
-      <c r="B133" s="1">
+      <c r="B133">
+        <v>435</v>
+      </c>
+      <c r="C133" s="1">
         <v>7551254</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D133" s="1" t="str">
+        <f t="shared" ref="D133:D196" si="2">CONCATENATE(B133,C133)</f>
+        <v>4357551254</v>
+      </c>
+      <c r="E133" t="b">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>131</v>
       </c>
-      <c r="B134" s="1">
+      <c r="B134">
+        <v>435</v>
+      </c>
+      <c r="C134" s="1">
         <v>9173893</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D134" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4359173893</v>
+      </c>
+      <c r="E134" t="b">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>132</v>
       </c>
-      <c r="B135" s="1">
+      <c r="B135">
+        <v>435</v>
+      </c>
+      <c r="C135" s="1">
         <v>2568202</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D135" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4352568202</v>
+      </c>
+      <c r="E135" t="b">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>133</v>
       </c>
-      <c r="B136" s="1">
+      <c r="B136">
+        <v>435</v>
+      </c>
+      <c r="C136" s="1">
         <v>4343802</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D136" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4354343802</v>
+      </c>
+      <c r="E136" t="b">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>134</v>
       </c>
-      <c r="B137" s="1">
+      <c r="B137">
+        <v>435</v>
+      </c>
+      <c r="C137" s="1">
         <v>8465251</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D137" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4358465251</v>
+      </c>
+      <c r="E137" t="b">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>135</v>
       </c>
-      <c r="B138" s="1">
+      <c r="B138">
+        <v>435</v>
+      </c>
+      <c r="C138" s="1">
         <v>5902748</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D138" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4355902748</v>
+      </c>
+      <c r="E138" t="b">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>136</v>
       </c>
-      <c r="B139" s="1">
+      <c r="B139">
+        <v>435</v>
+      </c>
+      <c r="C139" s="1">
         <v>5457011</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D139" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4355457011</v>
+      </c>
+      <c r="E139" t="b">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>137</v>
       </c>
-      <c r="B140" s="1">
+      <c r="B140">
+        <v>435</v>
+      </c>
+      <c r="C140" s="1">
         <v>3443484</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D140" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4353443484</v>
+      </c>
+      <c r="E140" t="b">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>138</v>
       </c>
-      <c r="B141" s="1">
+      <c r="B141">
+        <v>435</v>
+      </c>
+      <c r="C141" s="1">
         <v>5915981</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D141" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4355915981</v>
+      </c>
+      <c r="E141" t="b">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>139</v>
       </c>
-      <c r="B142" s="1">
+      <c r="B142">
+        <v>435</v>
+      </c>
+      <c r="C142" s="1">
         <v>7778407</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D142" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4357778407</v>
+      </c>
+      <c r="E142" t="b">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>140</v>
       </c>
-      <c r="B143" s="1">
+      <c r="B143">
+        <v>435</v>
+      </c>
+      <c r="C143" s="1">
         <v>2217074</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D143" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4352217074</v>
+      </c>
+      <c r="E143" t="b">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>141</v>
       </c>
-      <c r="B144" s="1">
+      <c r="B144">
+        <v>435</v>
+      </c>
+      <c r="C144" s="1">
         <v>2737031</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D144" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4352737031</v>
+      </c>
+      <c r="E144" t="b">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>142</v>
       </c>
-      <c r="B145" s="1">
+      <c r="B145">
+        <v>435</v>
+      </c>
+      <c r="C145" s="1">
         <v>8494794</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D145" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4358494794</v>
+      </c>
+      <c r="E145" t="b">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>143</v>
       </c>
-      <c r="B146" s="1">
+      <c r="B146">
+        <v>435</v>
+      </c>
+      <c r="C146" s="1">
         <v>6628639</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D146" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4356628639</v>
+      </c>
+      <c r="E146" t="b">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>144</v>
       </c>
-      <c r="B147" s="1">
+      <c r="B147">
+        <v>435</v>
+      </c>
+      <c r="C147" s="1">
         <v>5618680</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D147" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4355618680</v>
+      </c>
+      <c r="E147" t="b">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>145</v>
       </c>
-      <c r="B148" s="1">
+      <c r="B148">
+        <v>435</v>
+      </c>
+      <c r="C148" s="1">
         <v>7888364</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D148" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4357888364</v>
+      </c>
+      <c r="E148" t="b">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>146</v>
       </c>
-      <c r="B149" s="1">
+      <c r="B149">
+        <v>435</v>
+      </c>
+      <c r="C149" s="1">
         <v>8024308</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D149" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4358024308</v>
+      </c>
+      <c r="E149" t="b">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>147</v>
       </c>
-      <c r="B150" s="1">
+      <c r="B150">
+        <v>435</v>
+      </c>
+      <c r="C150" s="1">
         <v>5051667</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D150" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4355051667</v>
+      </c>
+      <c r="E150" t="b">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>148</v>
       </c>
-      <c r="B151" s="1">
+      <c r="B151">
+        <v>435</v>
+      </c>
+      <c r="C151" s="1">
         <v>4159001</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D151" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4354159001</v>
+      </c>
+      <c r="E151" t="b">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>149</v>
       </c>
-      <c r="B152" s="1">
+      <c r="B152">
+        <v>435</v>
+      </c>
+      <c r="C152" s="1">
         <v>7676347</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D152" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4357676347</v>
+      </c>
+      <c r="E152" t="b">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>150</v>
       </c>
-      <c r="B153" s="1">
+      <c r="B153">
+        <v>435</v>
+      </c>
+      <c r="C153" s="1">
         <v>5134416</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D153" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4355134416</v>
+      </c>
+      <c r="E153" t="b">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>151</v>
       </c>
-      <c r="B154" s="1">
+      <c r="B154">
+        <v>435</v>
+      </c>
+      <c r="C154" s="1">
         <v>2267488</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D154" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4352267488</v>
+      </c>
+      <c r="E154" t="b">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>152</v>
       </c>
-      <c r="B155" s="1">
+      <c r="B155">
+        <v>435</v>
+      </c>
+      <c r="C155" s="1">
         <v>6442587</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D155" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4356442587</v>
+      </c>
+      <c r="E155" t="b">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>153</v>
       </c>
-      <c r="B156" s="1">
+      <c r="B156">
+        <v>435</v>
+      </c>
+      <c r="C156" s="1">
         <v>6699768</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D156" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4356699768</v>
+      </c>
+      <c r="E156" t="b">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>154</v>
       </c>
-      <c r="B157" s="1">
+      <c r="B157">
+        <v>435</v>
+      </c>
+      <c r="C157" s="1">
         <v>4874074</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D157" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4354874074</v>
+      </c>
+      <c r="E157" t="b">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>155</v>
       </c>
-      <c r="B158" s="1">
+      <c r="B158">
+        <v>435</v>
+      </c>
+      <c r="C158" s="1">
         <v>7866924</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D158" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4357866924</v>
+      </c>
+      <c r="E158" t="b">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>156</v>
       </c>
-      <c r="B159" s="1">
+      <c r="B159">
+        <v>435</v>
+      </c>
+      <c r="C159" s="1">
         <v>9549022</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D159" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4359549022</v>
+      </c>
+      <c r="E159" t="b">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>157</v>
       </c>
-      <c r="B160" s="1">
+      <c r="B160">
+        <v>435</v>
+      </c>
+      <c r="C160" s="1">
         <v>5026225</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D160" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4355026225</v>
+      </c>
+      <c r="E160" t="b">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>158</v>
       </c>
-      <c r="B161" s="1">
+      <c r="B161">
+        <v>435</v>
+      </c>
+      <c r="C161" s="1">
         <v>4659414</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D161" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4354659414</v>
+      </c>
+      <c r="E161" t="b">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>159</v>
       </c>
-      <c r="B162" s="1">
+      <c r="B162">
+        <v>435</v>
+      </c>
+      <c r="C162" s="1">
         <v>5419835</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D162" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4355419835</v>
+      </c>
+      <c r="E162" t="b">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>160</v>
       </c>
-      <c r="B163" s="1">
+      <c r="B163">
+        <v>435</v>
+      </c>
+      <c r="C163" s="1">
         <v>5452013</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D163" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4355452013</v>
+      </c>
+      <c r="E163" t="b">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>161</v>
       </c>
-      <c r="B164" s="1">
+      <c r="B164">
+        <v>435</v>
+      </c>
+      <c r="C164" s="1">
         <v>2692532</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D164" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4352692532</v>
+      </c>
+      <c r="E164" t="b">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>162</v>
       </c>
-      <c r="B165" s="1">
+      <c r="B165">
+        <v>435</v>
+      </c>
+      <c r="C165" s="1">
         <v>7955739</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D165" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4357955739</v>
+      </c>
+      <c r="E165" t="b">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>163</v>
       </c>
-      <c r="B166" s="1">
+      <c r="B166">
+        <v>435</v>
+      </c>
+      <c r="C166" s="1">
         <v>5132906</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D166" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4355132906</v>
+      </c>
+      <c r="E166" t="b">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>164</v>
       </c>
-      <c r="B167" s="1">
+      <c r="B167">
+        <v>435</v>
+      </c>
+      <c r="C167" s="1">
         <v>5090326</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D167" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4355090326</v>
+      </c>
+      <c r="E167" t="b">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>165</v>
       </c>
-      <c r="B168" s="1">
+      <c r="B168">
+        <v>435</v>
+      </c>
+      <c r="C168" s="1">
         <v>3994238</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D168" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4353994238</v>
+      </c>
+      <c r="E168" t="b">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>166</v>
       </c>
-      <c r="B169" s="1">
+      <c r="B169">
+        <v>435</v>
+      </c>
+      <c r="C169" s="1">
         <v>5862415</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D169" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4355862415</v>
+      </c>
+      <c r="E169" t="b">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>167</v>
       </c>
-      <c r="B170" s="1">
+      <c r="B170">
+        <v>435</v>
+      </c>
+      <c r="C170" s="1">
         <v>8062628</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D170" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4358062628</v>
+      </c>
+      <c r="E170" t="b">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>168</v>
       </c>
-      <c r="B171" s="1">
+      <c r="B171">
+        <v>435</v>
+      </c>
+      <c r="C171" s="1">
         <v>8003832</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D171" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4358003832</v>
+      </c>
+      <c r="E171" t="b">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>169</v>
       </c>
-      <c r="B172" s="1">
+      <c r="B172">
+        <v>435</v>
+      </c>
+      <c r="C172" s="1">
         <v>5252614</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D172" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4355252614</v>
+      </c>
+      <c r="E172" t="b">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>170</v>
       </c>
-      <c r="B173" s="1">
+      <c r="B173">
+        <v>435</v>
+      </c>
+      <c r="C173" s="1">
         <v>4195869</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D173" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4354195869</v>
+      </c>
+      <c r="E173" t="b">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>171</v>
       </c>
-      <c r="B174" s="1">
+      <c r="B174">
+        <v>435</v>
+      </c>
+      <c r="C174" s="1">
         <v>8535596</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D174" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4358535596</v>
+      </c>
+      <c r="E174" t="b">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>172</v>
       </c>
-      <c r="B175" s="1">
+      <c r="B175">
+        <v>435</v>
+      </c>
+      <c r="C175" s="1">
         <v>8678867</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D175" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4358678867</v>
+      </c>
+      <c r="E175" t="b">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>173</v>
       </c>
-      <c r="B176" s="1">
+      <c r="B176">
+        <v>435</v>
+      </c>
+      <c r="C176" s="1">
         <v>5982092</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D176" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4355982092</v>
+      </c>
+      <c r="E176" t="b">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>174</v>
       </c>
-      <c r="B177" s="1">
+      <c r="B177">
+        <v>435</v>
+      </c>
+      <c r="C177" s="1">
         <v>7611254</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D177" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4357611254</v>
+      </c>
+      <c r="E177" t="b">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>175</v>
       </c>
-      <c r="B178" s="1">
+      <c r="B178">
+        <v>435</v>
+      </c>
+      <c r="C178" s="1">
         <v>8437753</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D178" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4358437753</v>
+      </c>
+      <c r="E178" t="b">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>176</v>
       </c>
-      <c r="B179" s="1">
+      <c r="B179">
+        <v>435</v>
+      </c>
+      <c r="C179" s="1">
         <v>7890078</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D179" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4357890078</v>
+      </c>
+      <c r="E179" t="b">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>177</v>
       </c>
-      <c r="B180" s="1">
+      <c r="B180">
+        <v>435</v>
+      </c>
+      <c r="C180" s="1">
         <v>3651319</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D180" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4353651319</v>
+      </c>
+      <c r="E180" t="b">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>178</v>
       </c>
-      <c r="B181" s="1">
+      <c r="B181">
+        <v>435</v>
+      </c>
+      <c r="C181" s="1">
         <v>6475001</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D181" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4356475001</v>
+      </c>
+      <c r="E181" t="b">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>179</v>
       </c>
-      <c r="B182" s="1">
+      <c r="B182">
+        <v>435</v>
+      </c>
+      <c r="C182" s="1">
         <v>3149776</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D182" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4353149776</v>
+      </c>
+      <c r="E182" t="b">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>180</v>
       </c>
-      <c r="B183" s="1">
+      <c r="B183">
+        <v>435</v>
+      </c>
+      <c r="C183" s="1">
         <v>5174142</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D183" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4355174142</v>
+      </c>
+      <c r="E183" t="b">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>181</v>
       </c>
-      <c r="B184" s="1">
+      <c r="B184">
+        <v>435</v>
+      </c>
+      <c r="C184" s="1">
         <v>4874684</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D184" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4354874684</v>
+      </c>
+      <c r="E184" t="b">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>182</v>
       </c>
-      <c r="B185" s="1">
+      <c r="B185">
+        <v>435</v>
+      </c>
+      <c r="C185" s="1">
         <v>9471793</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D185" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4359471793</v>
+      </c>
+      <c r="E185" t="b">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>183</v>
       </c>
-      <c r="B186" s="1">
+      <c r="B186">
+        <v>435</v>
+      </c>
+      <c r="C186" s="1">
         <v>7149721</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D186" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4357149721</v>
+      </c>
+      <c r="E186" t="b">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>184</v>
       </c>
-      <c r="B187" s="1">
+      <c r="B187">
+        <v>435</v>
+      </c>
+      <c r="C187" s="1">
         <v>3647226</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D187" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4353647226</v>
+      </c>
+      <c r="E187" t="b">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>185</v>
       </c>
-      <c r="B188" s="1">
+      <c r="B188">
+        <v>435</v>
+      </c>
+      <c r="C188" s="1">
         <v>9460546</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D188" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4359460546</v>
+      </c>
+      <c r="E188" t="b">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>186</v>
       </c>
-      <c r="B189" s="1">
+      <c r="B189">
+        <v>435</v>
+      </c>
+      <c r="C189" s="1">
         <v>9934058</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D189" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4359934058</v>
+      </c>
+      <c r="E189" t="b">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>187</v>
       </c>
-      <c r="B190" s="1">
+      <c r="B190">
+        <v>435</v>
+      </c>
+      <c r="C190" s="1">
         <v>8721015</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D190" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4358721015</v>
+      </c>
+      <c r="E190" t="b">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>188</v>
       </c>
-      <c r="B191" s="1">
+      <c r="B191">
+        <v>435</v>
+      </c>
+      <c r="C191" s="1">
         <v>5879786</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D191" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4355879786</v>
+      </c>
+      <c r="E191" t="b">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>189</v>
       </c>
-      <c r="B192" s="1">
+      <c r="B192">
+        <v>435</v>
+      </c>
+      <c r="C192" s="1">
         <v>5897459</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D192" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4355897459</v>
+      </c>
+      <c r="E192" t="b">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>190</v>
       </c>
-      <c r="B193" s="1">
+      <c r="B193">
+        <v>435</v>
+      </c>
+      <c r="C193" s="1">
         <v>3885491</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D193" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4353885491</v>
+      </c>
+      <c r="E193" t="b">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>191</v>
       </c>
-      <c r="B194" s="1">
+      <c r="B194">
+        <v>435</v>
+      </c>
+      <c r="C194" s="1">
         <v>5907260</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D194" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4355907260</v>
+      </c>
+      <c r="E194" t="b">
+        <v>0</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>192</v>
       </c>
-      <c r="B195" s="1">
+      <c r="B195">
+        <v>435</v>
+      </c>
+      <c r="C195" s="1">
         <v>5319117</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D195" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4355319117</v>
+      </c>
+      <c r="E195" t="b">
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>193</v>
       </c>
-      <c r="B196" s="1">
+      <c r="B196">
+        <v>435</v>
+      </c>
+      <c r="C196" s="1">
         <v>6449080</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D196" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>4356449080</v>
+      </c>
+      <c r="E196" t="b">
+        <v>0</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>194</v>
       </c>
-      <c r="B197" s="1">
+      <c r="B197">
+        <v>435</v>
+      </c>
+      <c r="C197" s="1">
         <v>5819513</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D197" s="1" t="str">
+        <f t="shared" ref="D197:D203" si="3">CONCATENATE(B197,C197)</f>
+        <v>4355819513</v>
+      </c>
+      <c r="E197" t="b">
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>195</v>
       </c>
-      <c r="B198" s="1">
+      <c r="B198">
+        <v>435</v>
+      </c>
+      <c r="C198" s="1">
         <v>4546568</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D198" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>4354546568</v>
+      </c>
+      <c r="E198" t="b">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>196</v>
       </c>
-      <c r="B199" s="1">
+      <c r="B199">
+        <v>435</v>
+      </c>
+      <c r="C199" s="1">
         <v>6325755</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D199" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>4356325755</v>
+      </c>
+      <c r="E199" t="b">
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>197</v>
       </c>
-      <c r="B200" s="1">
+      <c r="B200">
+        <v>435</v>
+      </c>
+      <c r="C200" s="1">
         <v>8598859</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D200" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>4358598859</v>
+      </c>
+      <c r="E200" t="b">
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>198</v>
       </c>
-      <c r="B201" s="1">
+      <c r="B201">
+        <v>435</v>
+      </c>
+      <c r="C201" s="1">
         <v>5437339</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D201" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>4355437339</v>
+      </c>
+      <c r="E201" t="b">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>199</v>
       </c>
-      <c r="B202" s="1">
+      <c r="B202">
+        <v>435</v>
+      </c>
+      <c r="C202" s="1">
         <v>2563144</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D202" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>4352563144</v>
+      </c>
+      <c r="E202" t="b">
+        <v>0</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>200</v>
       </c>
-      <c r="B203" s="1">
+      <c r="B203">
+        <v>435</v>
+      </c>
+      <c r="C203" s="1">
         <v>2375113</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B204" s="1"/>
+      <c r="D203" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>4352375113</v>
+      </c>
+      <c r="E203" t="b">
+        <v>0</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A3:H203" xr:uid="{3F5DAA33-3BC9-433D-912D-962BC44E2DA7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Assignments/A4/PhoneSurvey.xlsx
+++ b/Assignments/A4/PhoneSurvey.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angela\Documents\Autum_2018\Perspectives_Comp\HW4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angela\Documents\Autum_2018\Perspectives_Comp\persp-analysis_A18\Assignments\A4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB1CA1C-58CE-4F91-93A6-2D8489C854B5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE25C2E6-6803-4E74-A103-4ED16DD9D708}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="75" yWindow="720" windowWidth="25440" windowHeight="14415" xr2:uid="{BDE4B2C5-7C5C-EF4E-A801-B6684FDFD484}"/>
   </bookViews>
@@ -424,8 +424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C33F710-E8FA-AE4D-9C3A-3CA0D51B8626}">
   <dimension ref="A1:H204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
